--- a/giovinazzo-solidale-2020-03-30.xlsx
+++ b/giovinazzo-solidale-2020-03-30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A253B63-6D83-7849-9F24-6FCC5ED7D54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE667936-EAEF-6942-8800-FEDF56A30B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="460" windowWidth="37420" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="37420" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donazioni-Aiuti" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Donazioni in arrivo</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>ecc..</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -52,15 +49,6 @@
   </si>
   <si>
     <t>Descrizione impiego</t>
-  </si>
-  <si>
-    <t>Descrizione 1</t>
-  </si>
-  <si>
-    <t>Descrizione 2</t>
-  </si>
-  <si>
-    <t>Descrizione 3</t>
   </si>
   <si>
     <t>Donatori</t>
@@ -538,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1"/>
     </sheetView>
@@ -554,11 +542,11 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
@@ -580,13 +568,13 @@
         <v>43920</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -594,13 +582,13 @@
         <v>43920</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -608,13 +596,13 @@
         <v>43920</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -622,13 +610,13 @@
         <v>43920</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -656,11 +644,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -675,11 +663,11 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="13"/>
     </row>
@@ -691,124 +679,50 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>43898</v>
-      </c>
-      <c r="B3" s="8">
-        <v>500</v>
-      </c>
-      <c r="C3" s="10">
-        <v>20</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>43899</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8">
-        <v>500</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>43900</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8">
-        <v>500</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>43901</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8">
-        <v>500</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>43902</v>
-      </c>
-      <c r="B7" s="8">
-        <v>500</v>
-      </c>
-      <c r="C7" s="10">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>43903</v>
-      </c>
-      <c r="B8" s="8">
-        <v>500</v>
-      </c>
-      <c r="C8" s="10">
-        <v>40</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -821,11 +735,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -840,85 +754,34 @@
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>43898</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4">
-        <v>50</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>43899</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>30</v>
-      </c>
+      <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>43900</v>
-      </c>
-      <c r="B4" s="4">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2">
-        <v>50</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>43901</v>
-      </c>
-      <c r="B5" s="4">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>60</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>43902</v>
-      </c>
-      <c r="B6" s="4">
-        <v>90</v>
-      </c>
-      <c r="C6" s="2">
-        <v>40</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>43903</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/giovinazzo-solidale-2020-03-30.xlsx
+++ b/giovinazzo-solidale-2020-03-30.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE667936-EAEF-6942-8800-FEDF56A30B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90313C33-49FA-A84F-9DEF-D96B6620FC33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="37420" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="37420" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donazioni-Aiuti" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Donazioni in arrivo</t>
   </si>
@@ -69,16 +69,25 @@
     <t>7 consegne di pacchi alimentari</t>
   </si>
   <si>
-    <t>esercizio commerciale 2</t>
-  </si>
-  <si>
-    <t>100 mascherine</t>
-  </si>
-  <si>
     <t>Aiuti</t>
   </si>
   <si>
     <t>Impiego</t>
+  </si>
+  <si>
+    <t>privato cittadino</t>
+  </si>
+  <si>
+    <t>1 buono spesa Despar 50 euro</t>
+  </si>
+  <si>
+    <t>4 buoni spesa Despar 25 euro</t>
+  </si>
+  <si>
+    <t>donazione di 2 buoni spesa da 25 euro Despar</t>
+  </si>
+  <si>
+    <t>donazione di 1 buono spesa da 50 euro Despar</t>
   </si>
 </sst>
 </file>
@@ -528,15 +537,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:C1"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -546,7 +555,7 @@
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -582,13 +591,13 @@
         <v>43920</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -596,12 +605,12 @@
         <v>43920</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -610,28 +619,56 @@
         <v>43920</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3">
+        <v>43920</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3">
+        <v>43920</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3">
+        <v>43920</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -667,7 +704,7 @@
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="13"/>
     </row>

--- a/giovinazzo-solidale-2020-03-30.xlsx
+++ b/giovinazzo-solidale-2020-03-30.xlsx
@@ -1,28 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90313C33-49FA-A84F-9DEF-D96B6620FC33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="37420" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Donazioni-Aiuti" sheetId="1" r:id="rId1"/>
-    <sheet name="Donazioni-CC" sheetId="5" r:id="rId2"/>
-    <sheet name="Servizi sociali" sheetId="2" r:id="rId3"/>
+    <sheet name="Servizi sociali (entrata)" sheetId="2" r:id="rId2"/>
+    <sheet name="Servizi sociali (uscita)" sheetId="6" r:id="rId3"/>
+    <sheet name="Donazioni-CC" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="60">
   <si>
     <t>Donazioni in arrivo</t>
   </si>
@@ -36,12 +44,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Richieste di aiuto ai Servizi Sociali</t>
-  </si>
-  <si>
-    <t>Chiamate in uscita dai Servizi Sociali</t>
-  </si>
-  <si>
     <t>N° Donatori</t>
   </si>
   <si>
@@ -63,18 +65,12 @@
     <t>generi alimentari vari</t>
   </si>
   <si>
-    <t>esercizio commerciale 1</t>
-  </si>
-  <si>
     <t>7 consegne di pacchi alimentari</t>
   </si>
   <si>
     <t>Aiuti</t>
   </si>
   <si>
-    <t>Impiego</t>
-  </si>
-  <si>
     <t>privato cittadino</t>
   </si>
   <si>
@@ -88,17 +84,159 @@
   </si>
   <si>
     <t>donazione di 1 buono spesa da 50 euro Despar</t>
+  </si>
+  <si>
+    <t>Bar San Marco</t>
+  </si>
+  <si>
+    <t>CONTRIBUTI ECONOMICI</t>
+  </si>
+  <si>
+    <t>BUONI SPESA</t>
+  </si>
+  <si>
+    <t>RICHIESTE GENERI ALIMENTARI</t>
+  </si>
+  <si>
+    <t>TRIBUNALE PER I MINORENNI</t>
+  </si>
+  <si>
+    <t>ATTIVAZIONE SERVIZIO SER MOLFETTA</t>
+  </si>
+  <si>
+    <t>INFORMAZIONI SULL'EMERGENZA COVID-  SPOSTAMENTI</t>
+  </si>
+  <si>
+    <t>MISURE DI SOSTEGNO AL REDDITO</t>
+  </si>
+  <si>
+    <t>CONTATTI CON SERVIZI SPECIALISTICI</t>
+  </si>
+  <si>
+    <t>SERVIZI DOMICILIARI: HOME MAKER-SAD-ADI-ADH</t>
+  </si>
+  <si>
+    <t>VOLONTARIATO-SCUOLE- CARABINIERI</t>
+  </si>
+  <si>
+    <t>INFO PER DONAZIONI</t>
+  </si>
+  <si>
+    <t>VARIE</t>
+  </si>
+  <si>
+    <t>MAIL</t>
+  </si>
+  <si>
+    <t>NUMERO COMPLESSIVO CHIAMATE IN ENTRATA</t>
+  </si>
+  <si>
+    <t>NUMERO RICHIESTE PRESE IN CARICO</t>
+  </si>
+  <si>
+    <t>NUMERO RICHIESTE NON PRESE IN CARICO (FILTRO, ORIENTAMENTO)</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>RICHIESTE COMPLESSIVE</t>
+  </si>
+  <si>
+    <t>NUMERO COMPLESSIVO CHIAMATE IN USCITA</t>
+  </si>
+  <si>
+    <t>CONTR.EC.</t>
+  </si>
+  <si>
+    <t>B.SPESA</t>
+  </si>
+  <si>
+    <t>RICH.G.ALIM.</t>
+  </si>
+  <si>
+    <t>TRIB.MIN.</t>
+  </si>
+  <si>
+    <t>ATT.SER.MOLF.</t>
+  </si>
+  <si>
+    <t>INFO.COVID</t>
+  </si>
+  <si>
+    <t>SOST.REDDITO</t>
+  </si>
+  <si>
+    <t>SERV.SPEC.</t>
+  </si>
+  <si>
+    <t>SERV.DOM.</t>
+  </si>
+  <si>
+    <t>VOL.SCU.CARAB.</t>
+  </si>
+  <si>
+    <t>INFO.DONAZ.</t>
+  </si>
+  <si>
+    <t>CHIAM.IN.</t>
+  </si>
+  <si>
+    <t>RICH.IN.CARIC.</t>
+  </si>
+  <si>
+    <t>RICH.NON.IN.CARIC.</t>
+  </si>
+  <si>
+    <t>RICHIESTE AI SERVIZI SOCIALI</t>
+  </si>
+  <si>
+    <t>LEGENDA</t>
+  </si>
+  <si>
+    <t>CHIAMATE IN USCITA DAI SERVIZI SOCIALI</t>
+  </si>
+  <si>
+    <t>SEGNALAZ.</t>
+  </si>
+  <si>
+    <t>RICH.COMPL.</t>
+  </si>
+  <si>
+    <t>CHIAM.USCIT.</t>
+  </si>
+  <si>
+    <t>DONAZIONI</t>
+  </si>
+  <si>
+    <t>IMPIEGO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -120,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -208,11 +346,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="3" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color theme="3" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,11 +426,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,103 +735,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43920</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43920</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43920</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43920</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43920</v>
       </c>
@@ -639,10 +842,10 @@
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43920</v>
       </c>
@@ -653,10 +856,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43920</v>
       </c>
@@ -667,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -680,35 +883,648 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="63.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="22"/>
+      <c r="S1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="22"/>
+    </row>
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43920</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="4">
+        <v>6</v>
+      </c>
+      <c r="O3" s="4">
+        <v>94</v>
+      </c>
+      <c r="P3" s="4">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>16</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="S4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="S5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="S6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="S7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="S8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="S9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="B1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="63.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="22"/>
+      <c r="P1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43920</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="4">
+        <v>6</v>
+      </c>
+      <c r="M3" s="4">
+        <f>SUM(B3:L3)</f>
+        <v>46</v>
+      </c>
+      <c r="N3" s="4">
+        <f>SUM(M3-L3)</f>
+        <v>40</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="P4" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="P5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="P6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="P7" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="P8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P13" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -716,46 +1532,46 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="8"/>
       <c r="D8" s="8"/>
@@ -768,59 +1584,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>